--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A27955-2367-4EE0-92FF-262BC71F0327}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -148,11 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -489,162 +486,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E7" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F7" s="2">
         <v>0.58333333333333337</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A27955-2367-4EE0-92FF-262BC71F0327}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5A3402-15EC-4716-AF4E-00DB39F2511D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" activeTab="1" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vaktir" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Event</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Hall</t>
   </si>
   <si>
-    <t>Fjöldi</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -105,6 +103,48 @@
   </si>
   <si>
     <t>HÖ</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Brynja</t>
+  </si>
+  <si>
+    <t>Diljá</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Freyja</t>
+  </si>
+  <si>
+    <t>Gunna</t>
+  </si>
+  <si>
+    <t>Hildur</t>
+  </si>
+  <si>
+    <t>Kata</t>
+  </si>
+  <si>
+    <t>Inga</t>
+  </si>
+  <si>
+    <t>Jóna</t>
+  </si>
+  <si>
+    <t>Lísa</t>
   </si>
 </sst>
 </file>
@@ -488,15 +528,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,30 +549,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>0.77083333333333337</v>
@@ -543,16 +583,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>0.75</v>
@@ -563,16 +603,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>0.79166666666666663</v>
@@ -583,16 +623,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>0.83333333333333337</v>
@@ -603,16 +643,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>0.58333333333333337</v>
@@ -623,22 +663,137 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="F7" s="2">
         <v>0.58333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBE0E0D-C654-46F6-B584-4F5CBF8D92BE}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5A3402-15EC-4716-AF4E-00DB39F2511D}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3975E1-B2FE-4165-B6DD-D65FE59FF8F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" activeTab="1" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Event</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Lísa</t>
+  </si>
+  <si>
+    <t>EventID</t>
   </si>
 </sst>
 </file>
@@ -526,158 +529,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.75</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -690,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBE0E0D-C654-46F6-B584-4F5CBF8D92BE}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3975E1-B2FE-4165-B6DD-D65FE59FF8F5}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B6B946-054D-49F1-9525-5F2FEE565926}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11730" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Event</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>EventID</t>
+  </si>
+  <si>
+    <t>Skillset</t>
+  </si>
+  <si>
+    <t>Skillset1</t>
+  </si>
+  <si>
+    <t>Skillset2</t>
   </si>
 </sst>
 </file>
@@ -529,22 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -555,19 +564,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -578,19 +593,25 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -601,19 +622,25 @@
         <v>9</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>0.75</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -624,19 +651,25 @@
         <v>12</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -647,19 +680,25 @@
         <v>15</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -670,19 +709,25 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -693,15 +738,21 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -712,112 +763,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBE0E0D-C654-46F6-B584-4F5CBF8D92BE}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B6B946-054D-49F1-9525-5F2FEE565926}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120CC35B-B468-41D5-97B9-4C75D2B577D0}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11730" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -163,6 +163,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,10 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G7" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,7 +605,7 @@
       <c r="F2">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2">
@@ -630,7 +634,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2">
@@ -659,7 +663,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2">
@@ -688,7 +692,7 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="2">
@@ -717,7 +721,7 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="2">
@@ -746,7 +750,7 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120CC35B-B468-41D5-97B9-4C75D2B577D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF854F42-597D-4E28-981D-3EB13D7C0E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Event</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Shift begins</t>
-  </si>
-  <si>
-    <t>Shifts ends</t>
-  </si>
-  <si>
     <t>Sinfó</t>
   </si>
   <si>
@@ -157,6 +151,15 @@
   </si>
   <si>
     <t>Skillset2</t>
+  </si>
+  <si>
+    <t>EventRanking</t>
+  </si>
+  <si>
+    <t>ShiftBegins</t>
+  </si>
+  <si>
+    <t>ShiftsEnds</t>
   </si>
 </sst>
 </file>
@@ -542,221 +545,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G7" sqref="G2:G7"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.75</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -781,13 +805,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -795,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -806,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -817,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -828,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -839,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -850,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -861,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -872,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -883,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -894,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -905,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF854F42-597D-4E28-981D-3EB13D7C0E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C448CE-FC50-4F5D-A3AB-FDC88041C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -760,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C448CE-FC50-4F5D-A3AB-FDC88041C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1053E257-45EA-4B31-B9C4-1A28A516F987}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Event</t>
   </si>
@@ -48,6 +48,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Shift begins</t>
+  </si>
+  <si>
+    <t>Shifts ends</t>
+  </si>
+  <si>
     <t>Sinfó</t>
   </si>
   <si>
@@ -156,10 +162,16 @@
     <t>EventRanking</t>
   </si>
   <si>
-    <t>ShiftBegins</t>
-  </si>
-  <si>
-    <t>ShiftsEnds</t>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>Sinfó 2</t>
+  </si>
+  <si>
+    <t>Stebbi Hilmars</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
   </si>
 </sst>
 </file>
@@ -206,7 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,34 +578,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -597,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -615,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2">
         <v>0.77083333333333337</v>
@@ -629,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>0.75</v>
@@ -661,13 +677,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -693,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -711,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -725,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -757,13 +773,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,13 +791,109 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="J7" s="2">
         <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -805,13 +917,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -830,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -841,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -852,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -863,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -874,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -885,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -896,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -907,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -918,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -929,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1053E257-45EA-4B31-B9C4-1A28A516F987}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EAC2C0-9CF0-4A2E-BCAC-B674D0378E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Shift begins</t>
-  </si>
-  <si>
-    <t>Shifts ends</t>
-  </si>
-  <si>
     <t>Sinfó</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>3.5.2024</t>
+  </si>
+  <si>
+    <t>ShiftBegins</t>
+  </si>
+  <si>
+    <t>ShiftsEnds</t>
   </si>
 </sst>
 </file>
@@ -218,11 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -563,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,34 +574,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -613,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -631,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
         <v>0.77083333333333337</v>
@@ -645,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -663,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2">
         <v>0.75</v>
@@ -677,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -695,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -709,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -727,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -741,13 +737,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -759,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -773,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
+        <v>18</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -791,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
         <v>0.41666666666666669</v>
@@ -805,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -822,13 +818,13 @@
       <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="2">
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -837,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -854,13 +850,13 @@
       <c r="G9">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -869,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -886,13 +882,13 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="2">
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -917,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -931,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -942,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -953,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -964,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -975,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -986,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -997,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1008,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1019,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1030,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1041,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EAC2C0-9CF0-4A2E-BCAC-B674D0378E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BFED5F-FB25-46F5-A016-16155160BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>BL</t>
   </si>
   <si>
-    <t>31.4.2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vitringar </t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>ShiftsEnds</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,34 +574,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -705,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -737,13 +737,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -769,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
         <v>0.79166666666666663</v>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2">
         <v>0.77083333333333337</v>
@@ -865,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -913,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1015,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1037,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BFED5F-FB25-46F5-A016-16155160BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DDC64F7-A4E7-4C71-917F-C043608B73FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Event</t>
   </si>
@@ -54,9 +54,6 @@
     <t>EB</t>
   </si>
   <si>
-    <t>1.5.2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">How to </t>
   </si>
   <si>
@@ -78,18 +75,12 @@
     <t>SB</t>
   </si>
   <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
     <t>Sígildir</t>
   </si>
   <si>
     <t>NL</t>
   </si>
   <si>
-    <t>4.5.2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maxi </t>
   </si>
   <si>
@@ -162,16 +153,22 @@
     <t>Stebbi Hilmars</t>
   </si>
   <si>
-    <t>3.5.2024</t>
-  </si>
-  <si>
     <t>ShiftBegins</t>
   </si>
   <si>
     <t>ShiftsEnds</t>
   </si>
   <si>
-    <t>30.4.2024</t>
+    <t>1.5.2025</t>
+  </si>
+  <si>
+    <t>30.4.2025</t>
+  </si>
+  <si>
+    <t>4.5.2025</t>
+  </si>
+  <si>
+    <t>3.5.2025</t>
   </si>
 </sst>
 </file>
@@ -560,7 +557,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,34 +571,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -627,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2">
         <v>0.77083333333333337</v>
@@ -641,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2">
         <v>0.75</v>
@@ -673,13 +670,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -705,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -737,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -769,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
         <v>0.41666666666666669</v>
@@ -801,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -819,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
         <v>0.79166666666666663</v>
@@ -833,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -851,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
         <v>0.77083333333333337</v>
@@ -865,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2">
         <v>0.79166666666666663</v>
@@ -913,13 +910,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -949,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -960,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -971,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -982,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -993,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1004,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1015,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1026,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1037,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DDC64F7-A4E7-4C71-917F-C043608B73FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304F8F01-4BDE-48BA-8B02-91073440DB47}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Event</t>
   </si>
@@ -48,6 +48,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Shift begins</t>
+  </si>
+  <si>
+    <t>Shifts ends</t>
+  </si>
+  <si>
     <t>Sinfó</t>
   </si>
   <si>
@@ -153,22 +159,31 @@
     <t>Stebbi Hilmars</t>
   </si>
   <si>
-    <t>ShiftBegins</t>
-  </si>
-  <si>
-    <t>ShiftsEnds</t>
-  </si>
-  <si>
     <t>1.5.2025</t>
   </si>
   <si>
-    <t>30.4.2025</t>
+    <t>31.4.2025</t>
   </si>
   <si>
     <t>4.5.2025</t>
   </si>
   <si>
     <t>3.5.2025</t>
+  </si>
+  <si>
+    <t>Karíus og Baktus</t>
+  </si>
+  <si>
+    <t>Einar Áskell</t>
+  </si>
+  <si>
+    <t>5.5.2025</t>
+  </si>
+  <si>
+    <t>6.4.2025</t>
+  </si>
+  <si>
+    <t>Gömul íslensk</t>
   </si>
 </sst>
 </file>
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2657B460-964F-41AC-955C-3AC45122E764}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,34 +586,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -606,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -638,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2">
         <v>0.75</v>
@@ -670,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -702,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -734,13 +749,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -766,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2">
         <v>0.41666666666666669</v>
@@ -798,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -816,13 +831,13 @@
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="J8" s="2">
-        <v>0.95833333333333337</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -830,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -862,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -880,12 +895,108 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="J10" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -899,7 +1010,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,13 +1021,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -924,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -935,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -946,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -957,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -968,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -979,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -990,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1001,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1012,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1023,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1034,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304F8F01-4BDE-48BA-8B02-91073440DB47}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7676C230-6EFB-4D44-AF64-B347AFA5B0B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>46</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7676C230-6EFB-4D44-AF64-B347AFA5B0B7}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B409E551-F6BF-41AA-9919-D67DB39B9C3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Shift begins</t>
-  </si>
-  <si>
-    <t>Shifts ends</t>
-  </si>
-  <si>
     <t>Sinfó</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>Gömul íslensk</t>
+  </si>
+  <si>
+    <t>ShiftBegins</t>
+  </si>
+  <si>
+    <t>ShiftsEnds</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,34 +586,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -621,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2">
         <v>0.77083333333333337</v>
@@ -653,25 +653,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I3" s="2">
         <v>0.75</v>
@@ -685,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
         <v>0.83333333333333337</v>
@@ -749,13 +749,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -781,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
         <v>0.41666666666666669</v>
@@ -813,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2">
         <v>0.875</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
         <v>0.77083333333333337</v>
@@ -877,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2">
         <v>0.79166666666666663</v>
@@ -909,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>0.41666666666666669</v>
@@ -941,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2">
         <v>0.41666666666666669</v>
@@ -973,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>0.79166666666666663</v>
@@ -1021,13 +1021,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reykjavikuniversity-my.sharepoint.com/personal/katrin23_ru_is/Documents/Desktop/GitHub/Verkfraedi_X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B409E551-F6BF-41AA-9919-D67DB39B9C3D}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{F94DD756-D9F8-40B9-AB29-E19D9352A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353EBA9E-1847-4CDF-95F0-94FF500F3C35}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{B4D35FF8-5ED0-40D2-AFD4-EAD1889945D0}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>1.5.2025</t>
   </si>
   <si>
-    <t>31.4.2025</t>
-  </si>
-  <si>
     <t>4.5.2025</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>ShiftsEnds</t>
+  </si>
+  <si>
+    <t>30.4.2025</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2">
         <v>0.79166666666666663</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2">
         <v>0.58333333333333337</v>
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
         <v>0.875</v>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
         <v>0.77083333333333337</v>
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>0.41666666666666669</v>
@@ -941,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>0.41666666666666669</v>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>0.79166666666666663</v>
